--- a/teaching/traditional_assets/database/data/chile/chile_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/chile/chile_insurance_general.xlsx
@@ -591,97 +591,94 @@
         </is>
       </c>
       <c r="E2">
-        <v>-0.109</v>
+        <v>0.149</v>
       </c>
       <c r="K2">
-        <v>39.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="M2">
-        <v>22.88</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05003280122457904</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.57632241813602</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>22.88</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05003280122457904</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.57632241813602</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="V2">
-        <v>0.03258254974852395</v>
+        <v>0.02782608695652174</v>
       </c>
       <c r="W2">
-        <v>0.06923613533310082</v>
+        <v>0.1579242113123016</v>
       </c>
       <c r="X2">
-        <v>0.05537368731446993</v>
+        <v>0.04928836204419897</v>
       </c>
       <c r="Y2">
-        <v>0.01386244801863089</v>
+        <v>0.1086358492681027</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.001055515001710027</v>
+        <v>-0.001621754042136207</v>
       </c>
       <c r="AB2">
-        <v>0.05148247286015463</v>
+        <v>0.04494648126111223</v>
       </c>
       <c r="AC2">
-        <v>-0.05253798786186466</v>
+        <v>-0.04656823530324844</v>
       </c>
       <c r="AD2">
-        <v>91.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>91.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AG2">
-        <v>76.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.1667274052478134</v>
+        <v>0.1412783751493429</v>
       </c>
       <c r="AI2">
-        <v>0.1458864795918367</v>
+        <v>0.1461003861003861</v>
       </c>
       <c r="AJ2">
-        <v>0.1434725604045701</v>
+        <v>0.1202570379436964</v>
       </c>
       <c r="AK2">
-        <v>0.1251020741466601</v>
+        <v>0.1244655581947743</v>
       </c>
       <c r="AL2">
-        <v>3.67</v>
+        <v>4.64</v>
       </c>
       <c r="AM2">
-        <v>2.797</v>
+        <v>4.64</v>
       </c>
       <c r="AO2">
-        <v>-0.1893732970027248</v>
+        <v>-0.2140086206896552</v>
       </c>
       <c r="AQ2">
-        <v>-0.2484805148373257</v>
+        <v>-0.2140086206896552</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +689,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banvida, S.A. (SNSE:BANVIDA)</t>
+          <t>Banvida S.A. (SNSE:BANVIDA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -701,97 +698,94 @@
         </is>
       </c>
       <c r="E3">
-        <v>-0.109</v>
+        <v>0.149</v>
       </c>
       <c r="K3">
-        <v>39.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="M3">
-        <v>22.88</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.05003280122457904</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.57632241813602</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>22.88</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.05003280122457904</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.57632241813602</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="V3">
-        <v>0.03258254974852395</v>
+        <v>0.02782608695652174</v>
       </c>
       <c r="W3">
-        <v>0.06923613533310082</v>
+        <v>0.1579242113123016</v>
       </c>
       <c r="X3">
-        <v>0.05537368731446993</v>
+        <v>0.04928836204419897</v>
       </c>
       <c r="Y3">
-        <v>0.01386244801863089</v>
+        <v>0.1086358492681027</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.001055515001710027</v>
+        <v>-0.001621754042136207</v>
       </c>
       <c r="AB3">
-        <v>0.05148247286015463</v>
+        <v>0.04494648126111223</v>
       </c>
       <c r="AC3">
-        <v>-0.05253798786186466</v>
+        <v>-0.04656823530324844</v>
       </c>
       <c r="AD3">
-        <v>91.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>91.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AG3">
-        <v>76.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.1667274052478134</v>
+        <v>0.1412783751493429</v>
       </c>
       <c r="AI3">
-        <v>0.1458864795918367</v>
+        <v>0.1461003861003861</v>
       </c>
       <c r="AJ3">
-        <v>0.1434725604045701</v>
+        <v>0.1202570379436964</v>
       </c>
       <c r="AK3">
-        <v>0.1251020741466601</v>
+        <v>0.1244655581947743</v>
       </c>
       <c r="AL3">
-        <v>3.67</v>
+        <v>4.64</v>
       </c>
       <c r="AM3">
-        <v>2.797</v>
+        <v>4.64</v>
       </c>
       <c r="AO3">
-        <v>-0.1893732970027248</v>
+        <v>-0.2140086206896552</v>
       </c>
       <c r="AQ3">
-        <v>-0.2484805148373257</v>
+        <v>-0.2140086206896552</v>
       </c>
     </row>
   </sheetData>
